--- a/07管理/04.动态人脸识别系统-Client-开发计划-20170802 .xlsx
+++ b/07管理/04.动态人脸识别系统-Client-开发计划-20170802 .xlsx
@@ -719,14 +719,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,19 +1052,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1456,11 +1456,11 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1642,10 +1642,10 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>4</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>138</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1829,11 +1829,11 @@
       <c r="E27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
